--- a/Input/April_International_Myhealth/benefits.xlsx
+++ b/Input/April_International_Myhealth/benefits.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="135">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -281,7 +282,7 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">IP Nil ^ OP 20%/IP Nil ^ OP 20%/IP Nil ^ OP 20%</t>
+    <t xml:space="preserve">IPNilOP20%/IPNilOP20%/IPNilOP20%</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -309,7 +310,7 @@
     <t xml:space="preserve">Worldwide Excluding USA</t>
   </si>
   <si>
-    <t xml:space="preserve">IP Nil ^ OP Nil/IP Nil ^ OP Nil/IP Nil ^ OP Nil</t>
+    <t xml:space="preserve">IPNilOPNil/IPNilOPNil/IPNilOPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 3M (IP) / Extensive (OP)</t>
@@ -337,7 +338,7 @@
     <t xml:space="preserve">Europe and ASEAN excluding Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 16,375 ^ OP 20%/IP THB 16,375 ^ OP 20%/IP THB 16,375 ^ OP 20%</t>
+    <t xml:space="preserve">IPTHB16375OP20%/IPTHB16375OP20%/IPTHB16375OP20%</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 3M (IP) / Elite (OP)</t>
@@ -353,7 +354,7 @@
     <t xml:space="preserve">OP Psychiatric treatment covered up to TBH 163,750 (lifetime benefit)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 16,375 ^ OP Nil/IP THB 16,375 ^ OP Nil/IP THB 16,375 ^ OP Nil</t>
+    <t xml:space="preserve">IPTHB16375OPNil/IPTHB16375OPNil/IPTHB16375OPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 16M (IP) / Core (OP)</t>
@@ -362,25 +363,25 @@
     <t xml:space="preserve">THB16,375,000</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 163,750 ^ OP 20%/IP THB 163,750 ^ OP 20%/IP THB 163,750 ^ OP 20%</t>
+    <t xml:space="preserve">IPTHB163750OP20%/IPTHB163750OP20%/IPTHB163750OP20%</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 16M (IP/OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 163,750 ^ OP Nil/IP THB 163,750 ^ OP Nil/IP THB 163,750 ^ OP Nil</t>
+    <t xml:space="preserve">IPTHB163750OPNil/IPTHB163750OPNil/IPTHB163750OPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 16M (IP) / Extensive (OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 32,750 ^ OP 20%/IP THB 32,750 ^ OP 20%/IP THB 32,750 ^ OP 20%</t>
+    <t xml:space="preserve">IPTHB32750OP20%/IPTHB32750OP20%/IPTHB32750OP20%</t>
   </si>
   <si>
     <t xml:space="preserve">Essential 16M (IP) / Elite (OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 32,750 ^ OP Nil/IP THB 32,750 ^ OP Nil/IP THB 32,750 ^ OP Nil</t>
+    <t xml:space="preserve">IPTHB32750OPNil/IPTHB32750OPNil/IPTHB32750OPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Extensive (IP) / Core (OP)</t>
@@ -398,25 +399,25 @@
     <t xml:space="preserve">Essential- No wait</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 327,500 ^ OP 20%/IP THB 327,500 ^ OP 20%/IP THB 327,500 ^ OP 20%</t>
+    <t xml:space="preserve">IPTHB327500OP20%/IPTHB327500OP20%/IPTHB327500OP20%</t>
   </si>
   <si>
     <t xml:space="preserve">Extensive (IP/OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 327,500 ^ OP Nil/IP THB 327,500 ^ OP Nil/IP THB 327,500 ^ OP Nil</t>
+    <t xml:space="preserve">IPTHB327500OPNil/IPTHB327500OPNil/IPTHB327500OPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Extensive (IP) / Essential (OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 81,875 ^ OP 20%/IP THB 81,875 ^ OP 20%/IP THB 81,875 ^ OP 20%</t>
+    <t xml:space="preserve">IPTHB81875OP20%/IPTHB81875OP20%/IPTHB81875OP20%</t>
   </si>
   <si>
     <t xml:space="preserve">Extensive (IP) / Elite (OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP THB 81,875 ^ OP Nil/IP THB 81,875 ^ OP Nil/IP THB 81,875 ^ OP Nil</t>
+    <t xml:space="preserve">IPTHB81875OPNil/IPTHB81875OPNil/IPTHB81875OPNil</t>
   </si>
   <si>
     <t xml:space="preserve">Elite (IP) / Core (OP)</t>
@@ -581,10 +582,10 @@
   <dimension ref="A1:BL17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL3" activeCellId="0" sqref="BL3"/>
+      <selection pane="topLeft" activeCell="BK3" activeCellId="0" sqref="BK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
@@ -602,7 +603,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -784,7 +785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -954,7 +955,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>103</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>111</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>113</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>129</v>
       </c>
@@ -2754,7 +2755,7 @@
       <c r="BD14" s="4"/>
       <c r="BE14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
@@ -3210,4 +3211,88 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>